--- a/EC/Train Runs and Enforcements 2016-07-10.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2636,6 +2636,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2666,103 +2667,13 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2838,405 +2749,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3522,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM156"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,18 +3106,18 @@
       <c r="F2" s="52"/>
       <c r="G2" s="58"/>
       <c r="H2" s="52"/>
-      <c r="I2" s="117">
+      <c r="I2" s="118">
         <f>Variables!A2</f>
         <v>42561</v>
       </c>
-      <c r="J2" s="118"/>
+      <c r="J2" s="119"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
-      <c r="M2" s="119" t="s">
+      <c r="M2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="120"/>
-      <c r="O2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122"/>
       <c r="P2" s="2"/>
       <c r="U2" s="107"/>
       <c r="V2" s="26"/>
@@ -3627,10 +3139,10 @@
       <c r="F3" s="52"/>
       <c r="G3" s="58"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="122" t="s">
+      <c r="I3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="123"/>
+      <c r="J3" s="124"/>
       <c r="K3" s="60"/>
       <c r="L3" s="60"/>
       <c r="M3" s="61" t="s">
@@ -3920,25 +3432,25 @@
       <c r="AD10" s="91"/>
     </row>
     <row r="11" spans="1:91" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="116" t="str">
+      <c r="A11" s="117" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(Variables!A2,"yyyy-mm-dd")</f>
         <v>Eagle P3 System Performance - 2016-07-10</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
@@ -18491,7 +18003,7 @@
         <v>3.3576388887013309E-2</v>
       </c>
       <c r="N141" s="7">
-        <f t="shared" ref="N141:P156" si="43">24*60*SUM($M141:$M141)</f>
+        <f t="shared" ref="N141:P154" si="43">24*60*SUM($M141:$M141)</f>
         <v>48.349999997299165</v>
       </c>
       <c r="O141" s="7"/>
@@ -18723,7 +18235,7 @@
       <c r="Q143" s="29"/>
       <c r="R143" s="29"/>
       <c r="S143" s="47">
-        <f t="shared" ref="S143:S156" si="47">SUM(U143:U143)/12</f>
+        <f t="shared" ref="S143:S155" si="47">SUM(U143:U143)/12</f>
         <v>1</v>
       </c>
       <c r="T143" s="73" t="str">
@@ -20250,27 +19762,27 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="19" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="76" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="18" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="59" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="17" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S156">
-    <cfRule type="expression" dxfId="16" priority="52">
+    <cfRule type="expression" dxfId="5" priority="52">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S156">
-    <cfRule type="expression" dxfId="15" priority="51">
+    <cfRule type="expression" dxfId="4" priority="51">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20303,7 +19815,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -20385,22 +19897,22 @@
       <c r="T4" s="71"/>
     </row>
     <row r="5" spans="1:22" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="str">
+      <c r="A5" s="125" t="str">
         <f>"Eagle P3 Braking Events - "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Eagle P3 Braking Events - 2016-07-10</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
       <c r="N5" s="14"/>
       <c r="Q5" s="32"/>
       <c r="T5" s="72"/>
@@ -20528,19 +20040,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4011*20160710*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S7" s="9" t="str">
-        <f>MID(B7,13,4)</f>
+        <f t="shared" ref="S7:S38" si="0">MID(B7,13,4)</f>
         <v>4011</v>
       </c>
       <c r="T7" s="50">
-        <f>A7+6/24</f>
+        <f t="shared" ref="T7:T38" si="1">A7+6/24</f>
         <v>42561.70417824074</v>
       </c>
       <c r="U7" s="73" t="str">
-        <f>IF(VALUE(LEFT(C7,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" ref="U7:U38" si="2">IF(VALUE(LEFT(C7,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
       <c r="V7" s="73" t="str">
-        <f>IF(AND(E7="TRACK WARRANT AUTHORITY",G7&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" ref="V7:V38" si="3">IF(AND(E7="TRACK WARRANT AUTHORITY",G7&lt;10),"OMIT","KEEP")</f>
         <v>KEEP</v>
       </c>
     </row>
@@ -20602,19 +20114,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4027*20160710*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S8" s="9" t="str">
-        <f>MID(B8,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4027</v>
       </c>
       <c r="T8" s="50">
-        <f>A8+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.878275462965</v>
       </c>
       <c r="U8" s="73" t="str">
-        <f>IF(VALUE(LEFT(C8,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V8" s="73" t="str">
-        <f>IF(AND(E8="TRACK WARRANT AUTHORITY",G8&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20676,19 +20188,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160710*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S9" s="9" t="str">
-        <f>MID(B9,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4032</v>
       </c>
       <c r="T9" s="50">
-        <f>A9+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.797002314815</v>
       </c>
       <c r="U9" s="73" t="str">
-        <f>IF(VALUE(LEFT(C9,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V9" s="73" t="str">
-        <f>IF(AND(E9="TRACK WARRANT AUTHORITY",G9&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20748,19 +20260,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160711*" /stext=" 06:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S10" s="9" t="str">
-        <f>MID(B10,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4007</v>
       </c>
       <c r="T10" s="50">
-        <f>A10+6/24</f>
+        <f t="shared" si="1"/>
         <v>42562.250520833331</v>
       </c>
       <c r="U10" s="73" t="str">
-        <f>IF(VALUE(LEFT(C10,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V10" s="73" t="str">
-        <f>IF(AND(E10="TRACK WARRANT AUTHORITY",G10&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20820,19 +20332,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160710*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S11" s="9" t="str">
-        <f>MID(B11,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4026</v>
       </c>
       <c r="T11" s="50">
-        <f>A11+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.954027777778</v>
       </c>
       <c r="U11" s="73" t="str">
-        <f>IF(VALUE(LEFT(C11,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V11" s="73" t="str">
-        <f>IF(AND(E11="TRACK WARRANT AUTHORITY",G11&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20892,19 +20404,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160710*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f>MID(B12,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4040</v>
       </c>
       <c r="T12" s="50">
-        <f>A12+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.950868055559</v>
       </c>
       <c r="U12" s="73" t="str">
-        <f>IF(VALUE(LEFT(C12,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V12" s="73" t="str">
-        <f>IF(AND(E12="TRACK WARRANT AUTHORITY",G12&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20964,19 +20476,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4025*20160710*" /stext=" 13:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S13" s="9" t="str">
-        <f>MID(B13,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4025</v>
       </c>
       <c r="T13" s="50">
-        <f>A13+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.525659722225</v>
       </c>
       <c r="U13" s="73" t="str">
-        <f>IF(VALUE(LEFT(C13,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V13" s="73" t="str">
-        <f>IF(AND(E13="TRACK WARRANT AUTHORITY",G13&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21036,19 +20548,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160711*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S14" s="9" t="str">
-        <f>MID(B14,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4026</v>
       </c>
       <c r="T14" s="50">
-        <f>A14+6/24</f>
+        <f t="shared" si="1"/>
         <v>42562.019733796296</v>
       </c>
       <c r="U14" s="73" t="str">
-        <f>IF(VALUE(LEFT(C14,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V14" s="73" t="str">
-        <f>IF(AND(E14="TRACK WARRANT AUTHORITY",G14&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21108,19 +20620,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160710*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S15" s="9" t="str">
-        <f>MID(B15,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4039</v>
       </c>
       <c r="T15" s="50">
-        <f>A15+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.920023148145</v>
       </c>
       <c r="U15" s="73" t="str">
-        <f>IF(VALUE(LEFT(C15,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V15" s="73" t="str">
-        <f>IF(AND(E15="TRACK WARRANT AUTHORITY",G15&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21180,19 +20692,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160710*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S16" s="9" t="str">
-        <f>MID(B16,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4040</v>
       </c>
       <c r="T16" s="50">
-        <f>A16+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.825694444444</v>
       </c>
       <c r="U16" s="73" t="str">
-        <f>IF(VALUE(LEFT(C16,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V16" s="73" t="str">
-        <f>IF(AND(E16="TRACK WARRANT AUTHORITY",G16&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21252,19 +20764,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160710*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S17" s="9" t="str">
-        <f>MID(B17,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4020</v>
       </c>
       <c r="T17" s="50">
-        <f>A17+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.775509259256</v>
       </c>
       <c r="U17" s="73" t="str">
-        <f>IF(VALUE(LEFT(C17,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V17" s="73" t="str">
-        <f>IF(AND(E17="TRACK WARRANT AUTHORITY",G17&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21324,19 +20836,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4012*20160710*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S18" s="9" t="str">
-        <f>MID(B18,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4012</v>
       </c>
       <c r="T18" s="50">
-        <f>A18+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.948854166665</v>
       </c>
       <c r="U18" s="73" t="str">
-        <f>IF(VALUE(LEFT(C18,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V18" s="73" t="str">
-        <f>IF(AND(E18="TRACK WARRANT AUTHORITY",G18&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21396,19 +20908,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160711*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S19" s="9" t="str">
-        <f>MID(B19,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4026</v>
       </c>
       <c r="T19" s="50">
-        <f>A19+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.998807870368</v>
       </c>
       <c r="U19" s="73" t="str">
-        <f>IF(VALUE(LEFT(C19,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V19" s="73" t="str">
-        <f>IF(AND(E19="TRACK WARRANT AUTHORITY",G19&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21468,19 +20980,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160710*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S20" s="9" t="str">
-        <f>MID(B20,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4031</v>
       </c>
       <c r="T20" s="50">
-        <f>A20+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.659131944441</v>
       </c>
       <c r="U20" s="73" t="str">
-        <f>IF(VALUE(LEFT(C20,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V20" s="73" t="str">
-        <f>IF(AND(E20="TRACK WARRANT AUTHORITY",G20&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21542,19 +21054,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160710*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S21" s="9" t="str">
-        <f>MID(B21,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4028</v>
       </c>
       <c r="T21" s="50">
-        <f>A21+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.51699074074</v>
       </c>
       <c r="U21" s="73" t="str">
-        <f>IF(VALUE(LEFT(C21,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V21" s="73" t="str">
-        <f>IF(AND(E21="TRACK WARRANT AUTHORITY",G21&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21616,19 +21128,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4025*20160710*" /stext=" 11:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f>MID(B22,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4025</v>
       </c>
       <c r="T22" s="50">
-        <f>A22+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.463287037041</v>
       </c>
       <c r="U22" s="73" t="str">
-        <f>IF(VALUE(LEFT(C22,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V22" s="73" t="str">
-        <f>IF(AND(E22="TRACK WARRANT AUTHORITY",G22&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21690,19 +21202,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4012*20160710*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S23" s="9" t="str">
-        <f>MID(B23,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4012</v>
       </c>
       <c r="T23" s="50">
-        <f>A23+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.808935185189</v>
       </c>
       <c r="U23" s="73" t="str">
-        <f>IF(VALUE(LEFT(C23,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V23" s="73" t="str">
-        <f>IF(AND(E23="TRACK WARRANT AUTHORITY",G23&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21764,19 +21276,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160710*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S24" s="9" t="str">
-        <f>MID(B24,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4040</v>
       </c>
       <c r="T24" s="50">
-        <f>A24+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.902812499997</v>
       </c>
       <c r="U24" s="73" t="str">
-        <f>IF(VALUE(LEFT(C24,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V24" s="73" t="str">
-        <f>IF(AND(E24="TRACK WARRANT AUTHORITY",G24&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21838,19 +21350,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160710*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S25" s="9" t="str">
-        <f>MID(B25,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4040</v>
       </c>
       <c r="T25" s="50">
-        <f>A25+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.908437500002</v>
       </c>
       <c r="U25" s="73" t="str">
-        <f>IF(VALUE(LEFT(C25,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V25" s="73" t="str">
-        <f>IF(AND(E25="TRACK WARRANT AUTHORITY",G25&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21912,19 +21424,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160710*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S26" s="9" t="str">
-        <f>MID(B26,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4032</v>
       </c>
       <c r="T26" s="50">
-        <f>A26+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.897303240738</v>
       </c>
       <c r="U26" s="73" t="str">
-        <f>IF(VALUE(LEFT(C26,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V26" s="73" t="str">
-        <f>IF(AND(E26="TRACK WARRANT AUTHORITY",G26&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21986,19 +21498,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160710*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S27" s="9" t="str">
-        <f>MID(B27,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4026</v>
       </c>
       <c r="T27" s="50">
-        <f>A27+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.488541666666</v>
       </c>
       <c r="U27" s="73" t="str">
-        <f>IF(VALUE(LEFT(C27,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V27" s="73" t="str">
-        <f>IF(AND(E27="TRACK WARRANT AUTHORITY",G27&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22060,19 +21572,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160710*" /stext=" 11:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f>MID(B28,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4018</v>
       </c>
       <c r="T28" s="50">
-        <f>A28+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.492951388886</v>
       </c>
       <c r="U28" s="73" t="str">
-        <f>IF(VALUE(LEFT(C28,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V28" s="73" t="str">
-        <f>IF(AND(E28="TRACK WARRANT AUTHORITY",G28&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22130,19 +21642,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160710*" /stext=" 11:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S29" s="9" t="str">
-        <f>MID(B29,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4032</v>
       </c>
       <c r="T29" s="50">
-        <f>A29+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.472488425927</v>
       </c>
       <c r="U29" s="73" t="str">
-        <f>IF(VALUE(LEFT(C29,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V29" s="73" t="str">
-        <f>IF(AND(E29="TRACK WARRANT AUTHORITY",G29&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22200,19 +21712,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160710*" /stext=" 11:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S30" s="9" t="str">
-        <f>MID(B30,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4032</v>
       </c>
       <c r="T30" s="50">
-        <f>A30+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.473344907405</v>
       </c>
       <c r="U30" s="73" t="str">
-        <f>IF(VALUE(LEFT(C30,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V30" s="73" t="str">
-        <f>IF(AND(E30="TRACK WARRANT AUTHORITY",G30&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22272,19 +21784,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160710*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S31" s="9" t="str">
-        <f>MID(B31,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4028</v>
       </c>
       <c r="T31" s="50">
-        <f>A31+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.506886574076</v>
       </c>
       <c r="U31" s="73" t="str">
-        <f>IF(VALUE(LEFT(C31,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V31" s="73" t="str">
-        <f>IF(AND(E31="TRACK WARRANT AUTHORITY",G31&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22344,19 +21856,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160710*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S32" s="9" t="str">
-        <f>MID(B32,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4026</v>
       </c>
       <c r="T32" s="50">
-        <f>A32+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.514826388891</v>
       </c>
       <c r="U32" s="73" t="str">
-        <f>IF(VALUE(LEFT(C32,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V32" s="73" t="str">
-        <f>IF(AND(E32="TRACK WARRANT AUTHORITY",G32&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22416,19 +21928,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4012*20160710*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S33" s="9" t="str">
-        <f>MID(B33,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4012</v>
       </c>
       <c r="T33" s="50">
-        <f>A33+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.53324074074</v>
       </c>
       <c r="U33" s="73" t="str">
-        <f>IF(VALUE(LEFT(C33,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V33" s="73" t="str">
-        <f>IF(AND(E33="TRACK WARRANT AUTHORITY",G33&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22488,19 +22000,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160710*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S34" s="9" t="str">
-        <f>MID(B34,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
       <c r="T34" s="50">
-        <f>A34+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.595451388886</v>
       </c>
       <c r="U34" s="73" t="str">
-        <f>IF(VALUE(LEFT(C34,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V34" s="73" t="str">
-        <f>IF(AND(E34="TRACK WARRANT AUTHORITY",G34&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22560,19 +22072,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160710*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S35" s="9" t="str">
-        <f>MID(B35,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4032</v>
       </c>
       <c r="T35" s="50">
-        <f>A35+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.627210648148</v>
       </c>
       <c r="U35" s="73" t="str">
-        <f>IF(VALUE(LEFT(C35,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V35" s="73" t="str">
-        <f>IF(AND(E35="TRACK WARRANT AUTHORITY",G35&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22618,7 +22130,7 @@
         <v>108</v>
       </c>
       <c r="N36" s="10"/>
-      <c r="O36" s="126"/>
+      <c r="O36" s="116"/>
       <c r="P36" s="106" t="str">
         <f>VLOOKUP(C36,'Train Runs'!$A$13:$AE$894,31,0)</f>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-11/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-11 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-11</v>
@@ -22632,19 +22144,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160710*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S36" s="9" t="str">
-        <f>MID(B36,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
       <c r="T36" s="50">
-        <f>A36+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.66815972222</v>
       </c>
       <c r="U36" s="73" t="str">
-        <f>IF(VALUE(LEFT(C36,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V36" s="73" t="str">
-        <f>IF(AND(E36="TRACK WARRANT AUTHORITY",G36&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22704,19 +22216,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160710*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S37" s="9" t="str">
-        <f>MID(B37,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4039</v>
       </c>
       <c r="T37" s="50">
-        <f>A37+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.720659722225</v>
       </c>
       <c r="U37" s="73" t="str">
-        <f>IF(VALUE(LEFT(C37,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V37" s="73" t="str">
-        <f>IF(AND(E37="TRACK WARRANT AUTHORITY",G37&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22776,19 +22288,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160710*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S38" s="9" t="str">
-        <f>MID(B38,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4026</v>
       </c>
       <c r="T38" s="50">
-        <f>A38+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.734837962962</v>
       </c>
       <c r="U38" s="73" t="str">
-        <f>IF(VALUE(LEFT(C38,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V38" s="73" t="str">
-        <f>IF(AND(E38="TRACK WARRANT AUTHORITY",G38&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22848,19 +22360,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160710*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S39" s="9" t="str">
-        <f>MID(B39,13,4)</f>
+        <f t="shared" ref="S39:S64" si="4">MID(B39,13,4)</f>
         <v>4019</v>
       </c>
       <c r="T39" s="50">
-        <f>A39+6/24</f>
+        <f t="shared" ref="T39:T64" si="5">A39+6/24</f>
         <v>42561.741631944446</v>
       </c>
       <c r="U39" s="73" t="str">
-        <f>IF(VALUE(LEFT(C39,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" ref="U39:U64" si="6">IF(VALUE(LEFT(C39,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
       <c r="V39" s="73" t="str">
-        <f>IF(AND(E39="TRACK WARRANT AUTHORITY",G39&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" ref="V39:V64" si="7">IF(AND(E39="TRACK WARRANT AUTHORITY",G39&lt;10),"OMIT","KEEP")</f>
         <v>OMIT</v>
       </c>
     </row>
@@ -22920,19 +22432,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4012*20160710*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S40" s="9" t="str">
-        <f>MID(B40,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4012</v>
       </c>
       <c r="T40" s="50">
-        <f>A40+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.900636574072</v>
       </c>
       <c r="U40" s="73" t="str">
-        <f>IF(VALUE(LEFT(C40,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V40" s="73" t="str">
-        <f>IF(AND(E40="TRACK WARRANT AUTHORITY",G40&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22992,19 +22504,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160710*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S41" s="9" t="str">
-        <f>MID(B41,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4039</v>
       </c>
       <c r="T41" s="50">
-        <f>A41+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.941631944443</v>
       </c>
       <c r="U41" s="73" t="str">
-        <f>IF(VALUE(LEFT(C41,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V41" s="73" t="str">
-        <f>IF(AND(E41="TRACK WARRANT AUTHORITY",G41&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23064,19 +22576,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160710*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S42" s="9" t="str">
-        <f>MID(B42,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4026</v>
       </c>
       <c r="T42" s="50">
-        <f>A42+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.956180555557</v>
       </c>
       <c r="U42" s="73" t="str">
-        <f>IF(VALUE(LEFT(C42,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V42" s="73" t="str">
-        <f>IF(AND(E42="TRACK WARRANT AUTHORITY",G42&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23136,19 +22648,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160710*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S43" s="9" t="str">
-        <f>MID(B43,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4032</v>
       </c>
       <c r="T43" s="50">
-        <f>A43+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.994444444441</v>
       </c>
       <c r="U43" s="73" t="str">
-        <f>IF(VALUE(LEFT(C43,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V43" s="73" t="str">
-        <f>IF(AND(E43="TRACK WARRANT AUTHORITY",G43&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -23208,19 +22720,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160711*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S44" s="9" t="str">
-        <f>MID(B44,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4039</v>
       </c>
       <c r="T44" s="50">
-        <f>A44+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.013761574075</v>
       </c>
       <c r="U44" s="73" t="str">
-        <f>IF(VALUE(LEFT(C44,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V44" s="73" t="str">
-        <f>IF(AND(E44="TRACK WARRANT AUTHORITY",G44&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23280,19 +22792,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160711*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S45" s="9" t="str">
-        <f>MID(B45,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4019</v>
       </c>
       <c r="T45" s="50">
-        <f>A45+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.033773148149</v>
       </c>
       <c r="U45" s="73" t="str">
-        <f>IF(VALUE(LEFT(C45,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V45" s="73" t="str">
-        <f>IF(AND(E45="TRACK WARRANT AUTHORITY",G45&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23352,19 +22864,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4012*20160711*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S46" s="9" t="str">
-        <f>MID(B46,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4012</v>
       </c>
       <c r="T46" s="50">
-        <f>A46+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.046087962961</v>
       </c>
       <c r="U46" s="73" t="str">
-        <f>IF(VALUE(LEFT(C46,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V46" s="73" t="str">
-        <f>IF(AND(E46="TRACK WARRANT AUTHORITY",G46&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23424,19 +22936,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160711*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S47" s="9" t="str">
-        <f>MID(B47,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4032</v>
       </c>
       <c r="T47" s="50">
-        <f>A47+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.065300925926</v>
       </c>
       <c r="U47" s="73" t="str">
-        <f>IF(VALUE(LEFT(C47,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V47" s="73" t="str">
-        <f>IF(AND(E47="TRACK WARRANT AUTHORITY",G47&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23496,19 +23008,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160711*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S48" s="9" t="str">
-        <f>MID(B48,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4039</v>
       </c>
       <c r="T48" s="50">
-        <f>A48+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.170289351852</v>
       </c>
       <c r="U48" s="73" t="str">
-        <f>IF(VALUE(LEFT(C48,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V48" s="73" t="str">
-        <f>IF(AND(E48="TRACK WARRANT AUTHORITY",G48&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23568,19 +23080,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160711*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S49" s="9" t="str">
-        <f>MID(B49,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4019</v>
       </c>
       <c r="T49" s="50">
-        <f>A49+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.190196759257</v>
       </c>
       <c r="U49" s="73" t="str">
-        <f>IF(VALUE(LEFT(C49,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V49" s="73" t="str">
-        <f>IF(AND(E49="TRACK WARRANT AUTHORITY",G49&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23640,19 +23152,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4027*20160710*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S50" s="9" t="str">
-        <f>MID(B50,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4027</v>
       </c>
       <c r="T50" s="50">
-        <f>A50+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.88994212963</v>
       </c>
       <c r="U50" s="73" t="str">
-        <f>IF(VALUE(LEFT(C50,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V50" s="73" t="str">
-        <f>IF(AND(E50="TRACK WARRANT AUTHORITY",G50&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23712,19 +23224,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160710*" /stext=" 10:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S51" s="9" t="str">
-        <f>MID(B51,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4018</v>
       </c>
       <c r="T51" s="50">
-        <f>A51+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.431921296295</v>
       </c>
       <c r="U51" s="73" t="str">
-        <f>IF(VALUE(LEFT(C51,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V51" s="73" t="str">
-        <f>IF(AND(E51="TRACK WARRANT AUTHORITY",G51&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -23784,19 +23296,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4011*20160710*" /stext=" 11:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S52" s="9" t="str">
-        <f>MID(B52,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4011</v>
       </c>
       <c r="T52" s="50">
-        <f>A52+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.495069444441</v>
       </c>
       <c r="U52" s="73" t="str">
-        <f>IF(VALUE(LEFT(C52,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V52" s="73" t="str">
-        <f>IF(AND(E52="TRACK WARRANT AUTHORITY",G52&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23856,19 +23368,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160710*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S53" s="9" t="str">
-        <f>MID(B53,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4040</v>
       </c>
       <c r="T53" s="50">
-        <f>A53+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.681192129632</v>
       </c>
       <c r="U53" s="73" t="str">
-        <f>IF(VALUE(LEFT(C53,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V53" s="73" t="str">
-        <f>IF(AND(E53="TRACK WARRANT AUTHORITY",G53&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23928,19 +23440,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160710*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S54" s="9" t="str">
-        <f>MID(B54,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4020</v>
       </c>
       <c r="T54" s="50">
-        <f>A54+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.777268518519</v>
       </c>
       <c r="U54" s="73" t="str">
-        <f>IF(VALUE(LEFT(C54,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V54" s="73" t="str">
-        <f>IF(AND(E54="TRACK WARRANT AUTHORITY",G54&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24000,19 +23512,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4029*20160710*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S55" s="9" t="str">
-        <f>MID(B55,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4029</v>
       </c>
       <c r="T55" s="50">
-        <f>A55+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.901504629626</v>
       </c>
       <c r="U55" s="73" t="str">
-        <f>IF(VALUE(LEFT(C55,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V55" s="73" t="str">
-        <f>IF(AND(E55="TRACK WARRANT AUTHORITY",G55&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -24070,19 +23582,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4025*20160710*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S56" s="9" t="str">
-        <f>MID(B56,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4025</v>
       </c>
       <c r="T56" s="50">
-        <f>A56+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.922442129631</v>
       </c>
       <c r="U56" s="73" t="str">
-        <f>IF(VALUE(LEFT(C56,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V56" s="73" t="str">
-        <f>IF(AND(E56="TRACK WARRANT AUTHORITY",G56&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24140,19 +23652,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160710*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S57" s="9" t="str">
-        <f>MID(B57,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4031</v>
       </c>
       <c r="T57" s="50">
-        <f>A57+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.953125</v>
       </c>
       <c r="U57" s="73" t="str">
-        <f>IF(VALUE(LEFT(C57,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V57" s="73" t="str">
-        <f>IF(AND(E57="TRACK WARRANT AUTHORITY",G57&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24210,19 +23722,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4029*20160711*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S58" s="9" t="str">
-        <f>MID(B58,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4029</v>
       </c>
       <c r="T58" s="50">
-        <f>A58+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.035162037035</v>
       </c>
       <c r="U58" s="73" t="str">
-        <f>IF(VALUE(LEFT(C58,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V58" s="73" t="str">
-        <f>IF(AND(E58="TRACK WARRANT AUTHORITY",G58&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24280,19 +23792,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4029*20160711*" /stext=" 02:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S59" s="9" t="str">
-        <f>MID(B59,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4029</v>
       </c>
       <c r="T59" s="50">
-        <f>A59+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.107928240737</v>
       </c>
       <c r="U59" s="73" t="str">
-        <f>IF(VALUE(LEFT(C59,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V59" s="73" t="str">
-        <f>IF(AND(E59="TRACK WARRANT AUTHORITY",G59&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24350,19 +23862,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160711*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S60" s="9" t="str">
-        <f>MID(B60,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4020</v>
       </c>
       <c r="T60" s="50">
-        <f>A60+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.149768518517</v>
       </c>
       <c r="U60" s="73" t="str">
-        <f>IF(VALUE(LEFT(C60,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V60" s="73" t="str">
-        <f>IF(AND(E60="TRACK WARRANT AUTHORITY",G60&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24420,19 +23932,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4029*20160711*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S61" s="9" t="str">
-        <f>MID(B61,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4029</v>
       </c>
       <c r="T61" s="50">
-        <f>A61+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.19127314815</v>
       </c>
       <c r="U61" s="73" t="str">
-        <f>IF(VALUE(LEFT(C61,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V61" s="73" t="str">
-        <f>IF(AND(E61="TRACK WARRANT AUTHORITY",G61&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24490,19 +24002,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160711*" /stext=" 05:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S62" s="9" t="str">
-        <f>MID(B62,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4040</v>
       </c>
       <c r="T62" s="50">
-        <f>A62+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.213807870372</v>
       </c>
       <c r="U62" s="73" t="str">
-        <f>IF(VALUE(LEFT(C62,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V62" s="73" t="str">
-        <f>IF(AND(E62="TRACK WARRANT AUTHORITY",G62&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24560,19 +24072,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160711*" /stext=" 06:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S63" s="9" t="str">
-        <f>MID(B63,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4007</v>
       </c>
       <c r="T63" s="50">
-        <f>A63+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.275775462964</v>
       </c>
       <c r="U63" s="73" t="str">
-        <f>IF(VALUE(LEFT(C63,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V63" s="73" t="str">
-        <f>IF(AND(E63="TRACK WARRANT AUTHORITY",G63&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24630,19 +24142,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160711*" /stext=" 07:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S64" s="9" t="str">
-        <f>MID(B64,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4008</v>
       </c>
       <c r="T64" s="50">
-        <f>A64+6/24</f>
+        <f t="shared" si="5"/>
         <v>42562.313645833332</v>
       </c>
       <c r="U64" s="73" t="str">
-        <f>IF(VALUE(LEFT(C64,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V64" s="73" t="str">
-        <f>IF(AND(E64="TRACK WARRANT AUTHORITY",G64&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="7"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24665,17 +24177,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:N6 P6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:N64 A7:N59">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24704,14 +24216,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="str">
+      <c r="A1" s="126" t="str">
         <f>"Trips that did not appear in PTC Data "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Trips that did not appear in PTC Data 2016-07-10</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">

--- a/EC/Train Runs and Enforcements 2016-07-10.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-10.xlsx
@@ -3035,7 +3035,7 @@
   <dimension ref="A1:CM156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W73" sqref="W73"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,6 +3451,10 @@
       <c r="N11" s="117"/>
       <c r="O11" s="117"/>
       <c r="P11" s="117"/>
+      <c r="S11" s="27">
+        <f>AVERAGE(S13:S999)</f>
+        <v>0.9571596244131455</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
